--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.594001896669036</v>
+        <v>0.63768</v>
       </c>
       <c r="H2">
-        <v>0.594001896669036</v>
+        <v>1.91304</v>
       </c>
       <c r="I2">
-        <v>0.02873701971500637</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J2">
-        <v>0.02873701971500637</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.969549353884781</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N2">
-        <v>0.969549353884781</v>
+        <v>2.222197</v>
       </c>
       <c r="O2">
-        <v>0.2768928373407342</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P2">
-        <v>0.2768928373407342</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q2">
-        <v>0.5759141551217983</v>
+        <v>0.47235019432</v>
       </c>
       <c r="R2">
-        <v>0.5759141551217983</v>
+        <v>4.25115174888</v>
       </c>
       <c r="S2">
-        <v>0.007957074925604731</v>
+        <v>0.002932421914166417</v>
       </c>
       <c r="T2">
-        <v>0.007957074925604731</v>
+        <v>0.003230777608491676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.594001896669036</v>
+        <v>0.63768</v>
       </c>
       <c r="H3">
-        <v>0.594001896669036</v>
+        <v>1.91304</v>
       </c>
       <c r="I3">
-        <v>0.02873701971500637</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J3">
-        <v>0.02873701971500637</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.805860629273945</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N3">
-        <v>0.805860629273945</v>
+        <v>3.241766</v>
       </c>
       <c r="O3">
-        <v>0.2301451032345995</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P3">
-        <v>0.2301451032345995</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q3">
-        <v>0.4786827422396262</v>
+        <v>0.68906978096</v>
       </c>
       <c r="R3">
-        <v>0.4786827422396262</v>
+        <v>6.201628028640001</v>
       </c>
       <c r="S3">
-        <v>0.006613684368964863</v>
+        <v>0.004277850100148461</v>
       </c>
       <c r="T3">
-        <v>0.006613684368964863</v>
+        <v>0.004713094745771695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.594001896669036</v>
+        <v>0.63768</v>
       </c>
       <c r="H4">
-        <v>0.594001896669036</v>
+        <v>1.91304</v>
       </c>
       <c r="I4">
-        <v>0.02873701971500637</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J4">
-        <v>0.02873701971500637</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.53263119559408</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N4">
-        <v>1.53263119559408</v>
+        <v>4.236167</v>
       </c>
       <c r="O4">
-        <v>0.4377029376014604</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P4">
-        <v>0.4377029376014604</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q4">
-        <v>0.9103858370770158</v>
+        <v>0.90043965752</v>
       </c>
       <c r="R4">
-        <v>0.9103858370770158</v>
+        <v>8.10395691768</v>
       </c>
       <c r="S4">
-        <v>0.01257827794716937</v>
+        <v>0.005590066471545326</v>
       </c>
       <c r="T4">
-        <v>0.01257827794716937</v>
+        <v>0.006158820972862152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.594001896669036</v>
+        <v>0.63768</v>
       </c>
       <c r="H5">
-        <v>0.594001896669036</v>
+        <v>1.91304</v>
       </c>
       <c r="I5">
-        <v>0.02873701971500637</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J5">
-        <v>0.02873701971500637</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.19349162793258</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N5">
-        <v>0.19349162793258</v>
+        <v>5.739155</v>
       </c>
       <c r="O5">
-        <v>0.05525912182320596</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P5">
-        <v>0.05525912182320596</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q5">
-        <v>0.114934393981532</v>
+        <v>1.2199147868</v>
       </c>
       <c r="R5">
-        <v>0.114934393981532</v>
+        <v>10.9792330812</v>
       </c>
       <c r="S5">
-        <v>0.001587982473267409</v>
+        <v>0.007573416709138643</v>
       </c>
       <c r="T5">
-        <v>0.001587982473267409</v>
+        <v>0.008343964763548435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.72489600805098</v>
+        <v>0.63768</v>
       </c>
       <c r="H6">
-        <v>9.72489600805098</v>
+        <v>1.91304</v>
       </c>
       <c r="I6">
-        <v>0.4704775016323877</v>
+        <v>0.02339172577126565</v>
       </c>
       <c r="J6">
-        <v>0.4704775016323877</v>
+        <v>0.02466334496732149</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.969549353884781</v>
+        <v>0.762342</v>
       </c>
       <c r="N6">
-        <v>0.969549353884781</v>
+        <v>1.524684</v>
       </c>
       <c r="O6">
-        <v>0.2768928373407342</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P6">
-        <v>0.2768928373407342</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q6">
-        <v>9.428766641202513</v>
+        <v>0.48613024656</v>
       </c>
       <c r="R6">
-        <v>9.428766641202513</v>
+        <v>2.91678147936</v>
       </c>
       <c r="S6">
-        <v>0.1302718503319718</v>
+        <v>0.003017970576266804</v>
       </c>
       <c r="T6">
-        <v>0.1302718503319718</v>
+        <v>0.002216686876647534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.72489600805098</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H7">
-        <v>9.72489600805098</v>
+        <v>30.34568</v>
       </c>
       <c r="I7">
-        <v>0.4704775016323877</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J7">
-        <v>0.4704775016323877</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.805860629273945</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N7">
-        <v>0.805860629273945</v>
+        <v>2.222197</v>
       </c>
       <c r="O7">
-        <v>0.2301451032345995</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P7">
-        <v>0.2301451032345995</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q7">
-        <v>7.836910816671637</v>
+        <v>7.492675450995556</v>
       </c>
       <c r="R7">
-        <v>7.836910816671637</v>
+        <v>67.43407905896001</v>
       </c>
       <c r="S7">
-        <v>0.1082780931827423</v>
+        <v>0.04651566984081961</v>
       </c>
       <c r="T7">
-        <v>0.1082780931827423</v>
+        <v>0.05124834998664621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.72489600805098</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H8">
-        <v>9.72489600805098</v>
+        <v>30.34568</v>
       </c>
       <c r="I8">
-        <v>0.4704775016323877</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J8">
-        <v>0.4704775016323877</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.53263119559408</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N8">
-        <v>1.53263119559408</v>
+        <v>3.241766</v>
       </c>
       <c r="O8">
-        <v>0.4377029376014604</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P8">
-        <v>0.4377029376014604</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q8">
-        <v>14.90467899584727</v>
+        <v>10.93039929676444</v>
       </c>
       <c r="R8">
-        <v>14.90467899584727</v>
+        <v>98.37359367088001</v>
       </c>
       <c r="S8">
-        <v>0.205929384539892</v>
+        <v>0.06785758281430244</v>
       </c>
       <c r="T8">
-        <v>0.205929384539892</v>
+        <v>0.0747616698892178</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.72489600805098</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H9">
-        <v>9.72489600805098</v>
+        <v>30.34568</v>
       </c>
       <c r="I9">
-        <v>0.4704775016323877</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J9">
-        <v>0.4704775016323877</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.19349162793258</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N9">
-        <v>0.19349162793258</v>
+        <v>4.236167</v>
       </c>
       <c r="O9">
-        <v>0.05525912182320596</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P9">
-        <v>0.05525912182320596</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q9">
-        <v>1.881685960072833</v>
+        <v>14.28326313428444</v>
       </c>
       <c r="R9">
-        <v>1.881685960072833</v>
+        <v>128.54936820856</v>
       </c>
       <c r="S9">
-        <v>0.0259981735777817</v>
+        <v>0.08867267193798538</v>
       </c>
       <c r="T9">
-        <v>0.0259981735777817</v>
+        <v>0.09769456489135801</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.44760790291884</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H10">
-        <v>3.44760790291884</v>
+        <v>30.34568</v>
       </c>
       <c r="I10">
-        <v>0.1667906732812878</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J10">
-        <v>0.1667906732812878</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.969549353884781</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N10">
-        <v>0.969549353884781</v>
+        <v>5.739155</v>
       </c>
       <c r="O10">
-        <v>0.2768928373407342</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P10">
-        <v>0.2768928373407342</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q10">
-        <v>3.342626014723026</v>
+        <v>19.35095123337778</v>
       </c>
       <c r="R10">
-        <v>3.342626014723026</v>
+        <v>174.1585611004</v>
       </c>
       <c r="S10">
-        <v>0.04618314276682717</v>
+        <v>0.1201336511323205</v>
       </c>
       <c r="T10">
-        <v>0.04618314276682717</v>
+        <v>0.1323565030767347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.44760790291884</v>
+        <v>10.11522666666667</v>
       </c>
       <c r="H11">
-        <v>3.44760790291884</v>
+        <v>30.34568</v>
       </c>
       <c r="I11">
-        <v>0.1667906732812878</v>
+        <v>0.3710522649304671</v>
       </c>
       <c r="J11">
-        <v>0.1667906732812878</v>
+        <v>0.3912233795989359</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.805860629273945</v>
+        <v>0.762342</v>
       </c>
       <c r="N11">
-        <v>0.805860629273945</v>
+        <v>1.524684</v>
       </c>
       <c r="O11">
-        <v>0.2301451032345995</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P11">
-        <v>0.2301451032345995</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q11">
-        <v>2.778291474136002</v>
+        <v>7.71126212752</v>
       </c>
       <c r="R11">
-        <v>2.778291474136002</v>
+        <v>46.26757276512</v>
       </c>
       <c r="S11">
-        <v>0.03838605672089034</v>
+        <v>0.04787268920503912</v>
       </c>
       <c r="T11">
-        <v>0.03838605672089034</v>
+        <v>0.03516229175497928</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.44760790291884</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H12">
-        <v>3.44760790291884</v>
+        <v>27.434935</v>
       </c>
       <c r="I12">
-        <v>0.1667906732812878</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J12">
-        <v>0.1667906732812878</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.53263119559408</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N12">
-        <v>1.53263119559408</v>
+        <v>2.222197</v>
       </c>
       <c r="O12">
-        <v>0.4377029376014604</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P12">
-        <v>0.4377029376014604</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q12">
-        <v>5.2839114221901</v>
+        <v>6.773981139132778</v>
       </c>
       <c r="R12">
-        <v>5.2839114221901</v>
+        <v>60.965830252195</v>
       </c>
       <c r="S12">
-        <v>0.07300476765974509</v>
+        <v>0.04205390614296159</v>
       </c>
       <c r="T12">
-        <v>0.07300476765974509</v>
+        <v>0.04633262957827572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.44760790291884</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H13">
-        <v>3.44760790291884</v>
+        <v>27.434935</v>
       </c>
       <c r="I13">
-        <v>0.1667906732812878</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J13">
-        <v>0.1667906732812878</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.19349162793258</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N13">
-        <v>0.19349162793258</v>
+        <v>3.241766</v>
       </c>
       <c r="O13">
-        <v>0.05525912182320596</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P13">
-        <v>0.05525912182320596</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q13">
-        <v>0.6670832656089946</v>
+        <v>9.881959943912223</v>
       </c>
       <c r="R13">
-        <v>0.6670832656089946</v>
+        <v>88.93763949521001</v>
       </c>
       <c r="S13">
-        <v>0.009216706133825229</v>
+        <v>0.06134871170352765</v>
       </c>
       <c r="T13">
-        <v>0.009216706133825229</v>
+        <v>0.06759056161872622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.73329843812044</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H14">
-        <v>2.73329843812044</v>
+        <v>27.434935</v>
       </c>
       <c r="I14">
-        <v>0.1322333338390461</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J14">
-        <v>0.1322333338390461</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.969549353884781</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N14">
-        <v>0.969549353884781</v>
+        <v>4.236167</v>
       </c>
       <c r="O14">
-        <v>0.2768928373407342</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P14">
-        <v>0.2768928373407342</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q14">
-        <v>2.650067734653954</v>
+        <v>12.91321847712722</v>
       </c>
       <c r="R14">
-        <v>2.650067734653954</v>
+        <v>116.218966294145</v>
       </c>
       <c r="S14">
-        <v>0.03661446299771801</v>
+        <v>0.08016722613877671</v>
       </c>
       <c r="T14">
-        <v>0.03661446299771801</v>
+        <v>0.08832374287370359</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.73329843812044</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H15">
-        <v>2.73329843812044</v>
+        <v>27.434935</v>
       </c>
       <c r="I15">
-        <v>0.1322333338390461</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J15">
-        <v>0.1322333338390461</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.805860629273945</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N15">
-        <v>0.805860629273945</v>
+        <v>5.739155</v>
       </c>
       <c r="O15">
-        <v>0.2301451032345995</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P15">
-        <v>0.2301451032345995</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q15">
-        <v>2.202657599337229</v>
+        <v>17.49481604221389</v>
       </c>
       <c r="R15">
-        <v>2.202657599337229</v>
+        <v>157.453344379925</v>
       </c>
       <c r="S15">
-        <v>0.03043285426744253</v>
+        <v>0.1086104812984217</v>
       </c>
       <c r="T15">
-        <v>0.03043285426744253</v>
+        <v>0.1196609223697579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.73329843812044</v>
+        <v>9.144978333333334</v>
       </c>
       <c r="H16">
-        <v>2.73329843812044</v>
+        <v>27.434935</v>
       </c>
       <c r="I16">
-        <v>0.1322333338390461</v>
+        <v>0.3354610860580532</v>
       </c>
       <c r="J16">
-        <v>0.1322333338390461</v>
+        <v>0.3536973957999008</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.53263119559408</v>
+        <v>0.762342</v>
       </c>
       <c r="N16">
-        <v>1.53263119559408</v>
+        <v>1.524684</v>
       </c>
       <c r="O16">
-        <v>0.4377029376014604</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P16">
-        <v>0.4377029376014604</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q16">
-        <v>4.189138453131961</v>
+        <v>6.97160107259</v>
       </c>
       <c r="R16">
-        <v>4.189138453131961</v>
+        <v>41.82960643554</v>
       </c>
       <c r="S16">
-        <v>0.05787891867018508</v>
+        <v>0.04328076077436558</v>
       </c>
       <c r="T16">
-        <v>0.05787891867018508</v>
+        <v>0.0317895393594374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.73329843812044</v>
+        <v>3.146393</v>
       </c>
       <c r="H17">
-        <v>2.73329843812044</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I17">
-        <v>0.1322333338390461</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J17">
-        <v>0.1322333338390461</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.19349162793258</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N17">
-        <v>0.19349162793258</v>
+        <v>2.222197</v>
       </c>
       <c r="O17">
-        <v>0.05525912182320596</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P17">
-        <v>0.05525912182320596</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q17">
-        <v>0.5288703644175022</v>
+        <v>2.330635028473667</v>
       </c>
       <c r="R17">
-        <v>0.5288703644175022</v>
+        <v>20.975715256263</v>
       </c>
       <c r="S17">
-        <v>0.007307097903700513</v>
+        <v>0.01446893705899482</v>
       </c>
       <c r="T17">
-        <v>0.007307097903700513</v>
+        <v>0.01594106142879649</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.17046367206693</v>
+        <v>3.146393</v>
       </c>
       <c r="H18">
-        <v>4.17046367206693</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I18">
-        <v>0.2017614715322719</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J18">
-        <v>0.2017614715322719</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.969549353884781</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N18">
-        <v>0.969549353884781</v>
+        <v>3.241766</v>
       </c>
       <c r="O18">
-        <v>0.2768928373407342</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P18">
-        <v>0.2768928373407342</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q18">
-        <v>4.043470358652443</v>
+        <v>3.399956616679333</v>
       </c>
       <c r="R18">
-        <v>4.043470358652443</v>
+        <v>30.599609550114</v>
       </c>
       <c r="S18">
-        <v>0.05586630631861254</v>
+        <v>0.02110744826583305</v>
       </c>
       <c r="T18">
-        <v>0.05586630631861254</v>
+        <v>0.02325499986895126</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.17046367206693</v>
+        <v>3.146393</v>
       </c>
       <c r="H19">
-        <v>4.17046367206693</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I19">
-        <v>0.2017614715322719</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J19">
-        <v>0.2017614715322719</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.805860629273945</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N19">
-        <v>0.805860629273945</v>
+        <v>4.236167</v>
       </c>
       <c r="O19">
-        <v>0.2301451032345995</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P19">
-        <v>0.2301451032345995</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q19">
-        <v>3.360812479135983</v>
+        <v>4.442882065210333</v>
       </c>
       <c r="R19">
-        <v>3.360812479135983</v>
+        <v>39.985938586893</v>
       </c>
       <c r="S19">
-        <v>0.04643441469455943</v>
+        <v>0.02758208821917719</v>
       </c>
       <c r="T19">
-        <v>0.04643441469455943</v>
+        <v>0.03038839417461213</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.17046367206693</v>
+        <v>3.146393</v>
       </c>
       <c r="H20">
-        <v>4.17046367206693</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I20">
-        <v>0.2017614715322719</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J20">
-        <v>0.2017614715322719</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.53263119559408</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N20">
-        <v>1.53263119559408</v>
+        <v>5.739155</v>
       </c>
       <c r="O20">
-        <v>0.4377029376014604</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P20">
-        <v>0.4377029376014604</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q20">
-        <v>6.391782723901615</v>
+        <v>6.019212372638333</v>
       </c>
       <c r="R20">
-        <v>6.391782723901615</v>
+        <v>54.172911353745</v>
       </c>
       <c r="S20">
-        <v>0.08831158878446885</v>
+        <v>0.03736818673898642</v>
       </c>
       <c r="T20">
-        <v>0.08831158878446885</v>
+        <v>0.04117016736337262</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.17046367206693</v>
+        <v>3.146393</v>
       </c>
       <c r="H21">
-        <v>4.17046367206693</v>
+        <v>9.439178999999999</v>
       </c>
       <c r="I21">
-        <v>0.2017614715322719</v>
+        <v>0.1154177051571789</v>
       </c>
       <c r="J21">
-        <v>0.2017614715322719</v>
+        <v>0.1216920335619207</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.19349162793258</v>
+        <v>0.762342</v>
       </c>
       <c r="N21">
-        <v>0.19349162793258</v>
+        <v>1.524684</v>
       </c>
       <c r="O21">
-        <v>0.05525912182320596</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P21">
-        <v>0.05525912182320596</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q21">
-        <v>0.8069498051419158</v>
+        <v>2.398627532406</v>
       </c>
       <c r="R21">
-        <v>0.8069498051419158</v>
+        <v>14.391765194436</v>
       </c>
       <c r="S21">
-        <v>0.01114916173463112</v>
+        <v>0.01489104487418743</v>
       </c>
       <c r="T21">
-        <v>0.01114916173463112</v>
+        <v>0.01093741072618816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.2166435</v>
+      </c>
+      <c r="H22">
+        <v>8.433287</v>
+      </c>
+      <c r="I22">
+        <v>0.1546772180830351</v>
+      </c>
+      <c r="J22">
+        <v>0.108723846071921</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.7407323333333333</v>
+      </c>
+      <c r="N22">
+        <v>2.222197</v>
+      </c>
+      <c r="O22">
+        <v>0.125361503586392</v>
+      </c>
+      <c r="P22">
+        <v>0.1309951108729331</v>
+      </c>
+      <c r="Q22">
+        <v>3.123404178589833</v>
+      </c>
+      <c r="R22">
+        <v>18.740425071539</v>
+      </c>
+      <c r="S22">
+        <v>0.01939056862944954</v>
+      </c>
+      <c r="T22">
+        <v>0.014242292270723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.2166435</v>
+      </c>
+      <c r="H23">
+        <v>8.433287</v>
+      </c>
+      <c r="I23">
+        <v>0.1546772180830351</v>
+      </c>
+      <c r="J23">
+        <v>0.108723846071921</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.080588666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.241766</v>
+      </c>
+      <c r="O23">
+        <v>0.1828787726899297</v>
+      </c>
+      <c r="P23">
+        <v>0.1910971424199137</v>
+      </c>
+      <c r="Q23">
+        <v>4.556457177473667</v>
+      </c>
+      <c r="R23">
+        <v>27.338743064842</v>
+      </c>
+      <c r="S23">
+        <v>0.02828717980611805</v>
+      </c>
+      <c r="T23">
+        <v>0.02077681629724666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.2166435</v>
+      </c>
+      <c r="H24">
+        <v>8.433287</v>
+      </c>
+      <c r="I24">
+        <v>0.1546772180830351</v>
+      </c>
+      <c r="J24">
+        <v>0.108723846071921</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.412055666666667</v>
+      </c>
+      <c r="N24">
+        <v>4.236167</v>
+      </c>
+      <c r="O24">
+        <v>0.2389762314336017</v>
+      </c>
+      <c r="P24">
+        <v>0.2497155589001607</v>
+      </c>
+      <c r="Q24">
+        <v>5.954135348488166</v>
+      </c>
+      <c r="R24">
+        <v>35.724812090929</v>
+      </c>
+      <c r="S24">
+        <v>0.03696417866611707</v>
+      </c>
+      <c r="T24">
+        <v>0.02715003598762479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.2166435</v>
+      </c>
+      <c r="H25">
+        <v>8.433287</v>
+      </c>
+      <c r="I25">
+        <v>0.1546772180830351</v>
+      </c>
+      <c r="J25">
+        <v>0.108723846071921</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.913051666666667</v>
+      </c>
+      <c r="N25">
+        <v>5.739155</v>
+      </c>
+      <c r="O25">
+        <v>0.3237647697820488</v>
+      </c>
+      <c r="P25">
+        <v>0.3383144003623209</v>
+      </c>
+      <c r="Q25">
+        <v>8.066656875414168</v>
+      </c>
+      <c r="R25">
+        <v>48.399941252485</v>
+      </c>
+      <c r="S25">
+        <v>0.05007903390318161</v>
+      </c>
+      <c r="T25">
+        <v>0.03678284278890723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.2166435</v>
+      </c>
+      <c r="H26">
+        <v>8.433287</v>
+      </c>
+      <c r="I26">
+        <v>0.1546772180830351</v>
+      </c>
+      <c r="J26">
+        <v>0.108723846071921</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.762342</v>
+      </c>
+      <c r="N26">
+        <v>1.524684</v>
+      </c>
+      <c r="O26">
+        <v>0.1290187225080277</v>
+      </c>
+      <c r="P26">
+        <v>0.0898777874446717</v>
+      </c>
+      <c r="Q26">
+        <v>3.214524439077</v>
+      </c>
+      <c r="R26">
+        <v>12.858097756308</v>
+      </c>
+      <c r="S26">
+        <v>0.01995625707816879</v>
+      </c>
+      <c r="T26">
+        <v>0.009771858727419321</v>
       </c>
     </row>
   </sheetData>
